--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d967b9d49e8ef17/Documentos/TESIS ANDRÉS/Desarrollo Tesis/Envios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d967b9d49e8ef17/Documentos/TESIS ANDRÉS/Envio Carpetas GitHub/Documentos Importantes/DocumentosTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_DD8E3855DAEC54EFC1D4C4C7C4021366993A1BCC" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{AE261FC4-DC9C-40B9-BBFD-2A2B496164EC}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_DD8E3855DAEC54EFC1D4C4C7C4021366993A1BCC" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{3FB18518-A540-4E75-9BA0-533DC6233E47}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,35 +275,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,43 +650,43 @@
       <c r="Z1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
       <c r="X2" s="15" t="s">
         <v>16</v>
       </c>
@@ -694,8 +694,8 @@
       <c r="Z2" s="16"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="11">
         <v>400</v>
       </c>
@@ -764,10 +764,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="12">
         <v>70</v>
       </c>
@@ -794,10 +794,10 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="11">
         <v>10</v>
       </c>
@@ -824,10 +824,10 @@
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="11">
         <v>20</v>
       </c>
@@ -854,17 +854,17 @@
       <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11">
         <v>30</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -884,92 +884,92 @@
       <c r="X7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20">
+      <c r="B8" s="22"/>
+      <c r="C8" s="21">
         <v>10</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
     </row>
     <row r="10" spans="1:26" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
     </row>
     <row r="11" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12">
         <v>280</v>
       </c>
@@ -996,10 +996,10 @@
       <c r="X11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11">
         <v>20</v>
       </c>
@@ -1007,8 +1007,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1025,11 +1025,11 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="11">
         <v>10</v>
       </c>
@@ -1055,11 +1055,11 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:26" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="11">
         <v>20</v>
       </c>
@@ -1068,8 +1068,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1086,10 +1086,10 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="11">
         <v>220</v>
       </c>
@@ -1100,15 +1100,15 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="1"/>
@@ -1116,10 +1116,10 @@
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11">
         <v>10</v>
       </c>
@@ -1146,10 +1146,10 @@
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="12">
         <v>50</v>
       </c>
@@ -1176,10 +1176,10 @@
       <c r="X17" s="1"/>
     </row>
     <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="11">
         <v>10</v>
       </c>
@@ -1206,10 +1206,10 @@
       <c r="X18" s="1"/>
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="11">
         <v>30</v>
       </c>
@@ -1236,10 +1236,10 @@
       <c r="X19" s="1"/>
     </row>
     <row r="20" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11">
         <v>10</v>
       </c>
@@ -1266,25 +1266,30 @@
       <c r="X20" s="6"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="K15:S15"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="D1:Z1"/>
     <mergeCell ref="F9:G10"/>
     <mergeCell ref="F7:G7"/>
@@ -1301,25 +1306,20 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
